--- a/data/raw_names.xlsx
+++ b/data/raw_names.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Recon\midsummer-sittning\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E020BB1-8B56-42D3-BCDF-854E99CB94CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62A7F5D-87F0-4DA4-937E-FD2C762576B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{578B2BF1-8F5E-45BB-9921-6AB2E21B7762}"/>
   </bookViews>
@@ -393,9 +393,6 @@
     <t>46703564025</t>
   </si>
   <si>
-    <t>Sandra Rosdahl</t>
-  </si>
-  <si>
     <t>852536</t>
   </si>
   <si>
@@ -615,9 +612,6 @@
     <t>0761044283</t>
   </si>
   <si>
-    <t>Klara Wirlée</t>
-  </si>
-  <si>
     <t>852612</t>
   </si>
   <si>
@@ -705,9 +699,6 @@
     <t>46733720006</t>
   </si>
   <si>
-    <t>Adam Bengtsson</t>
-  </si>
-  <si>
     <t>852807</t>
   </si>
   <si>
@@ -816,18 +807,12 @@
     <t>Justus.nummer@whu.edu</t>
   </si>
   <si>
-    <t>Christina Schlatte</t>
-  </si>
-  <si>
     <t>851975</t>
   </si>
   <si>
     <t>christinaschlatte@yahoo.de</t>
   </si>
   <si>
-    <t>Catharina Solt</t>
-  </si>
-  <si>
     <t>851974</t>
   </si>
   <si>
@@ -1009,19 +994,46 @@
   </si>
   <si>
     <t>value</t>
+  </si>
+  <si>
+    <t>Oliver Daniels</t>
+  </si>
+  <si>
+    <t>Paloma Martinez Prohens</t>
+  </si>
+  <si>
+    <t>Claudia Mueller</t>
+  </si>
+  <si>
+    <t>Stina Persson</t>
+  </si>
+  <si>
+    <t>José Maria Vara</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1044,8 +1056,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1362,8 +1376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D5B35CC-0BB0-4822-BB52-D6E9CBBB730B}">
   <dimension ref="A1:B1615"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1529" workbookViewId="0">
-      <selection activeCell="B1550" sqref="B1550"/>
+    <sheetView tabSelected="1" topLeftCell="A836" workbookViewId="0">
+      <selection activeCell="B858" sqref="B858"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1374,10 +1388,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B1" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -5337,7 +5351,7 @@
         <v>1</v>
       </c>
       <c r="B496" t="s">
-        <v>119</v>
+        <v>322</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
@@ -5361,7 +5375,7 @@
         <v>5</v>
       </c>
       <c r="B499" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
@@ -5369,7 +5383,7 @@
         <v>7</v>
       </c>
       <c r="B500" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
@@ -5425,7 +5439,7 @@
         <v>16</v>
       </c>
       <c r="B507" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.25">
@@ -5489,7 +5503,7 @@
         <v>1</v>
       </c>
       <c r="B515" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.25">
@@ -5513,7 +5527,7 @@
         <v>5</v>
       </c>
       <c r="B518" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.25">
@@ -5521,7 +5535,7 @@
         <v>7</v>
       </c>
       <c r="B519" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.25">
@@ -5577,7 +5591,7 @@
         <v>16</v>
       </c>
       <c r="B526" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.25">
@@ -5641,7 +5655,7 @@
         <v>1</v>
       </c>
       <c r="B534" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.25">
@@ -5665,7 +5679,7 @@
         <v>5</v>
       </c>
       <c r="B537" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.25">
@@ -5673,7 +5687,7 @@
         <v>7</v>
       </c>
       <c r="B538" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.25">
@@ -5729,7 +5743,7 @@
         <v>16</v>
       </c>
       <c r="B545" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.25">
@@ -5793,7 +5807,7 @@
         <v>1</v>
       </c>
       <c r="B553" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.25">
@@ -5817,7 +5831,7 @@
         <v>5</v>
       </c>
       <c r="B556" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.25">
@@ -5825,7 +5839,7 @@
         <v>7</v>
       </c>
       <c r="B557" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.25">
@@ -5881,7 +5895,7 @@
         <v>16</v>
       </c>
       <c r="B564" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.25">
@@ -5945,7 +5959,7 @@
         <v>1</v>
       </c>
       <c r="B572" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.25">
@@ -5969,7 +5983,7 @@
         <v>5</v>
       </c>
       <c r="B575" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.25">
@@ -5977,7 +5991,7 @@
         <v>7</v>
       </c>
       <c r="B576" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.25">
@@ -6097,7 +6111,7 @@
         <v>1</v>
       </c>
       <c r="B591" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.25">
@@ -6121,7 +6135,7 @@
         <v>5</v>
       </c>
       <c r="B594" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.25">
@@ -6129,7 +6143,7 @@
         <v>7</v>
       </c>
       <c r="B595" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.25">
@@ -6185,7 +6199,7 @@
         <v>16</v>
       </c>
       <c r="B602" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.25">
@@ -6249,7 +6263,7 @@
         <v>1</v>
       </c>
       <c r="B610" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.25">
@@ -6273,7 +6287,7 @@
         <v>5</v>
       </c>
       <c r="B613" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.25">
@@ -6281,7 +6295,7 @@
         <v>7</v>
       </c>
       <c r="B614" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.25">
@@ -6337,7 +6351,7 @@
         <v>16</v>
       </c>
       <c r="B621" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.25">
@@ -6401,7 +6415,7 @@
         <v>1</v>
       </c>
       <c r="B629" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.25">
@@ -6425,7 +6439,7 @@
         <v>5</v>
       </c>
       <c r="B632" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.25">
@@ -6433,7 +6447,7 @@
         <v>7</v>
       </c>
       <c r="B633" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.25">
@@ -6489,7 +6503,7 @@
         <v>16</v>
       </c>
       <c r="B640" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.25">
@@ -6553,7 +6567,7 @@
         <v>1</v>
       </c>
       <c r="B648" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.25">
@@ -6577,7 +6591,7 @@
         <v>5</v>
       </c>
       <c r="B651" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.25">
@@ -6585,7 +6599,7 @@
         <v>7</v>
       </c>
       <c r="B652" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.25">
@@ -6641,7 +6655,7 @@
         <v>16</v>
       </c>
       <c r="B659" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.25">
@@ -6705,7 +6719,7 @@
         <v>1</v>
       </c>
       <c r="B667" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.25">
@@ -6729,7 +6743,7 @@
         <v>5</v>
       </c>
       <c r="B670" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.25">
@@ -6737,7 +6751,7 @@
         <v>7</v>
       </c>
       <c r="B671" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.25">
@@ -6793,7 +6807,7 @@
         <v>16</v>
       </c>
       <c r="B678" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.25">
@@ -6857,7 +6871,7 @@
         <v>1</v>
       </c>
       <c r="B686" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.25">
@@ -6881,7 +6895,7 @@
         <v>5</v>
       </c>
       <c r="B689" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.25">
@@ -6889,7 +6903,7 @@
         <v>7</v>
       </c>
       <c r="B690" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.25">
@@ -6945,7 +6959,7 @@
         <v>16</v>
       </c>
       <c r="B697" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.25">
@@ -7009,7 +7023,7 @@
         <v>1</v>
       </c>
       <c r="B705" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.25">
@@ -7033,7 +7047,7 @@
         <v>5</v>
       </c>
       <c r="B708" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.25">
@@ -7041,7 +7055,7 @@
         <v>7</v>
       </c>
       <c r="B709" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.25">
@@ -7097,7 +7111,7 @@
         <v>16</v>
       </c>
       <c r="B716" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.25">
@@ -7161,7 +7175,7 @@
         <v>1</v>
       </c>
       <c r="B724" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.25">
@@ -7185,7 +7199,7 @@
         <v>5</v>
       </c>
       <c r="B727" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.25">
@@ -7193,7 +7207,7 @@
         <v>7</v>
       </c>
       <c r="B728" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.25">
@@ -7249,7 +7263,7 @@
         <v>16</v>
       </c>
       <c r="B735" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.25">
@@ -7313,7 +7327,7 @@
         <v>1</v>
       </c>
       <c r="B743" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.25">
@@ -7337,7 +7351,7 @@
         <v>5</v>
       </c>
       <c r="B746" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.25">
@@ -7345,7 +7359,7 @@
         <v>7</v>
       </c>
       <c r="B747" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.25">
@@ -7401,7 +7415,7 @@
         <v>16</v>
       </c>
       <c r="B754" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.25">
@@ -7465,7 +7479,7 @@
         <v>1</v>
       </c>
       <c r="B762" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="763" spans="1:2" x14ac:dyDescent="0.25">
@@ -7489,7 +7503,7 @@
         <v>5</v>
       </c>
       <c r="B765" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="766" spans="1:2" x14ac:dyDescent="0.25">
@@ -7497,7 +7511,7 @@
         <v>7</v>
       </c>
       <c r="B766" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="767" spans="1:2" x14ac:dyDescent="0.25">
@@ -7537,7 +7551,7 @@
         <v>13</v>
       </c>
       <c r="B771" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="772" spans="1:2" x14ac:dyDescent="0.25">
@@ -7617,7 +7631,7 @@
         <v>1</v>
       </c>
       <c r="B781" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="782" spans="1:2" x14ac:dyDescent="0.25">
@@ -7641,7 +7655,7 @@
         <v>5</v>
       </c>
       <c r="B784" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="785" spans="1:2" x14ac:dyDescent="0.25">
@@ -7649,7 +7663,7 @@
         <v>7</v>
       </c>
       <c r="B785" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="786" spans="1:2" x14ac:dyDescent="0.25">
@@ -7705,7 +7719,7 @@
         <v>16</v>
       </c>
       <c r="B792" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="793" spans="1:2" x14ac:dyDescent="0.25">
@@ -7769,7 +7783,7 @@
         <v>1</v>
       </c>
       <c r="B800" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="801" spans="1:2" x14ac:dyDescent="0.25">
@@ -7793,7 +7807,7 @@
         <v>5</v>
       </c>
       <c r="B803" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="804" spans="1:2" x14ac:dyDescent="0.25">
@@ -7801,7 +7815,7 @@
         <v>7</v>
       </c>
       <c r="B804" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="805" spans="1:2" x14ac:dyDescent="0.25">
@@ -7857,7 +7871,7 @@
         <v>16</v>
       </c>
       <c r="B811" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="812" spans="1:2" x14ac:dyDescent="0.25">
@@ -7921,7 +7935,7 @@
         <v>1</v>
       </c>
       <c r="B819" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="820" spans="1:2" x14ac:dyDescent="0.25">
@@ -7945,7 +7959,7 @@
         <v>5</v>
       </c>
       <c r="B822" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="823" spans="1:2" x14ac:dyDescent="0.25">
@@ -7953,7 +7967,7 @@
         <v>7</v>
       </c>
       <c r="B823" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="824" spans="1:2" x14ac:dyDescent="0.25">
@@ -8073,7 +8087,7 @@
         <v>1</v>
       </c>
       <c r="B838" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="839" spans="1:2" x14ac:dyDescent="0.25">
@@ -8097,7 +8111,7 @@
         <v>5</v>
       </c>
       <c r="B841" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="842" spans="1:2" x14ac:dyDescent="0.25">
@@ -8105,7 +8119,7 @@
         <v>7</v>
       </c>
       <c r="B842" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="843" spans="1:2" x14ac:dyDescent="0.25">
@@ -8161,7 +8175,7 @@
         <v>16</v>
       </c>
       <c r="B849" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="850" spans="1:2" x14ac:dyDescent="0.25">
@@ -8224,8 +8238,8 @@
       <c r="A857" t="s">
         <v>1</v>
       </c>
-      <c r="B857" t="s">
-        <v>193</v>
+      <c r="B857" s="1" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="858" spans="1:2" x14ac:dyDescent="0.25">
@@ -8249,7 +8263,7 @@
         <v>5</v>
       </c>
       <c r="B860" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="861" spans="1:2" x14ac:dyDescent="0.25">
@@ -8257,7 +8271,7 @@
         <v>7</v>
       </c>
       <c r="B861" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="862" spans="1:2" x14ac:dyDescent="0.25">
@@ -8313,7 +8327,7 @@
         <v>16</v>
       </c>
       <c r="B868" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="869" spans="1:2" x14ac:dyDescent="0.25">
@@ -8377,7 +8391,7 @@
         <v>1</v>
       </c>
       <c r="B876" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="877" spans="1:2" x14ac:dyDescent="0.25">
@@ -8401,7 +8415,7 @@
         <v>5</v>
       </c>
       <c r="B879" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="880" spans="1:2" x14ac:dyDescent="0.25">
@@ -8409,7 +8423,7 @@
         <v>7</v>
       </c>
       <c r="B880" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="881" spans="1:2" x14ac:dyDescent="0.25">
@@ -8465,7 +8479,7 @@
         <v>16</v>
       </c>
       <c r="B887" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="888" spans="1:2" x14ac:dyDescent="0.25">
@@ -8529,7 +8543,7 @@
         <v>1</v>
       </c>
       <c r="B895" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="896" spans="1:2" x14ac:dyDescent="0.25">
@@ -8553,7 +8567,7 @@
         <v>5</v>
       </c>
       <c r="B898" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="899" spans="1:2" x14ac:dyDescent="0.25">
@@ -8561,7 +8575,7 @@
         <v>7</v>
       </c>
       <c r="B899" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="900" spans="1:2" x14ac:dyDescent="0.25">
@@ -8681,7 +8695,7 @@
         <v>1</v>
       </c>
       <c r="B914" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="915" spans="1:2" x14ac:dyDescent="0.25">
@@ -8705,7 +8719,7 @@
         <v>5</v>
       </c>
       <c r="B917" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="918" spans="1:2" x14ac:dyDescent="0.25">
@@ -8713,7 +8727,7 @@
         <v>7</v>
       </c>
       <c r="B918" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="919" spans="1:2" x14ac:dyDescent="0.25">
@@ -8769,7 +8783,7 @@
         <v>16</v>
       </c>
       <c r="B925" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="926" spans="1:2" x14ac:dyDescent="0.25">
@@ -8833,7 +8847,7 @@
         <v>1</v>
       </c>
       <c r="B933" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="934" spans="1:2" x14ac:dyDescent="0.25">
@@ -8857,7 +8871,7 @@
         <v>5</v>
       </c>
       <c r="B936" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="937" spans="1:2" x14ac:dyDescent="0.25">
@@ -8865,7 +8879,7 @@
         <v>7</v>
       </c>
       <c r="B937" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="938" spans="1:2" x14ac:dyDescent="0.25">
@@ -8985,7 +8999,7 @@
         <v>1</v>
       </c>
       <c r="B952" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="953" spans="1:2" x14ac:dyDescent="0.25">
@@ -9009,7 +9023,7 @@
         <v>5</v>
       </c>
       <c r="B955" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="956" spans="1:2" x14ac:dyDescent="0.25">
@@ -9017,7 +9031,7 @@
         <v>7</v>
       </c>
       <c r="B956" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="957" spans="1:2" x14ac:dyDescent="0.25">
@@ -9073,7 +9087,7 @@
         <v>16</v>
       </c>
       <c r="B963" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="964" spans="1:2" x14ac:dyDescent="0.25">
@@ -9137,7 +9151,7 @@
         <v>1</v>
       </c>
       <c r="B971" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="972" spans="1:2" x14ac:dyDescent="0.25">
@@ -9161,7 +9175,7 @@
         <v>5</v>
       </c>
       <c r="B974" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="975" spans="1:2" x14ac:dyDescent="0.25">
@@ -9169,7 +9183,7 @@
         <v>7</v>
       </c>
       <c r="B975" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="976" spans="1:2" x14ac:dyDescent="0.25">
@@ -9225,7 +9239,7 @@
         <v>16</v>
       </c>
       <c r="B982" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="983" spans="1:2" x14ac:dyDescent="0.25">
@@ -9289,7 +9303,7 @@
         <v>1</v>
       </c>
       <c r="B990" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="991" spans="1:2" x14ac:dyDescent="0.25">
@@ -9313,7 +9327,7 @@
         <v>5</v>
       </c>
       <c r="B993" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="994" spans="1:2" x14ac:dyDescent="0.25">
@@ -9321,7 +9335,7 @@
         <v>7</v>
       </c>
       <c r="B994" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="995" spans="1:2" x14ac:dyDescent="0.25">
@@ -9377,7 +9391,7 @@
         <v>16</v>
       </c>
       <c r="B1001" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="1002" spans="1:2" x14ac:dyDescent="0.25">
@@ -9440,8 +9454,8 @@
       <c r="A1009" t="s">
         <v>1</v>
       </c>
-      <c r="B1009" t="s">
-        <v>223</v>
+      <c r="B1009" s="1" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="1010" spans="1:2" x14ac:dyDescent="0.25">
@@ -9465,7 +9479,7 @@
         <v>5</v>
       </c>
       <c r="B1012" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="1013" spans="1:2" x14ac:dyDescent="0.25">
@@ -9473,7 +9487,7 @@
         <v>7</v>
       </c>
       <c r="B1013" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="1014" spans="1:2" x14ac:dyDescent="0.25">
@@ -9529,7 +9543,7 @@
         <v>16</v>
       </c>
       <c r="B1020" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="1021" spans="1:2" x14ac:dyDescent="0.25">
@@ -9593,7 +9607,7 @@
         <v>1</v>
       </c>
       <c r="B1028" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="1029" spans="1:2" x14ac:dyDescent="0.25">
@@ -9617,7 +9631,7 @@
         <v>5</v>
       </c>
       <c r="B1031" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="1032" spans="1:2" x14ac:dyDescent="0.25">
@@ -9625,7 +9639,7 @@
         <v>7</v>
       </c>
       <c r="B1032" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="1033" spans="1:2" x14ac:dyDescent="0.25">
@@ -9745,7 +9759,7 @@
         <v>1</v>
       </c>
       <c r="B1047" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="1048" spans="1:2" x14ac:dyDescent="0.25">
@@ -9769,7 +9783,7 @@
         <v>5</v>
       </c>
       <c r="B1050" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="1051" spans="1:2" x14ac:dyDescent="0.25">
@@ -9777,7 +9791,7 @@
         <v>7</v>
       </c>
       <c r="B1051" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="1052" spans="1:2" x14ac:dyDescent="0.25">
@@ -9897,7 +9911,7 @@
         <v>1</v>
       </c>
       <c r="B1066" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="1067" spans="1:2" x14ac:dyDescent="0.25">
@@ -9921,7 +9935,7 @@
         <v>5</v>
       </c>
       <c r="B1069" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="1070" spans="1:2" x14ac:dyDescent="0.25">
@@ -9929,7 +9943,7 @@
         <v>7</v>
       </c>
       <c r="B1070" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="1071" spans="1:2" x14ac:dyDescent="0.25">
@@ -10049,7 +10063,7 @@
         <v>1</v>
       </c>
       <c r="B1085" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="1086" spans="1:2" x14ac:dyDescent="0.25">
@@ -10073,7 +10087,7 @@
         <v>5</v>
       </c>
       <c r="B1088" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="1089" spans="1:2" x14ac:dyDescent="0.25">
@@ -10081,7 +10095,7 @@
         <v>7</v>
       </c>
       <c r="B1089" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="1090" spans="1:2" x14ac:dyDescent="0.25">
@@ -10201,7 +10215,7 @@
         <v>1</v>
       </c>
       <c r="B1104" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="1105" spans="1:2" x14ac:dyDescent="0.25">
@@ -10225,7 +10239,7 @@
         <v>5</v>
       </c>
       <c r="B1107" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="1108" spans="1:2" x14ac:dyDescent="0.25">
@@ -10233,7 +10247,7 @@
         <v>7</v>
       </c>
       <c r="B1108" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="1109" spans="1:2" x14ac:dyDescent="0.25">
@@ -10353,7 +10367,7 @@
         <v>1</v>
       </c>
       <c r="B1123" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="1124" spans="1:2" x14ac:dyDescent="0.25">
@@ -10377,7 +10391,7 @@
         <v>5</v>
       </c>
       <c r="B1126" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="1127" spans="1:2" x14ac:dyDescent="0.25">
@@ -10385,7 +10399,7 @@
         <v>7</v>
       </c>
       <c r="B1127" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="1128" spans="1:2" x14ac:dyDescent="0.25">
@@ -10505,7 +10519,7 @@
         <v>1</v>
       </c>
       <c r="B1142" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="1143" spans="1:2" x14ac:dyDescent="0.25">
@@ -10529,7 +10543,7 @@
         <v>5</v>
       </c>
       <c r="B1145" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="1146" spans="1:2" x14ac:dyDescent="0.25">
@@ -10537,7 +10551,7 @@
         <v>7</v>
       </c>
       <c r="B1146" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="1147" spans="1:2" x14ac:dyDescent="0.25">
@@ -10593,7 +10607,7 @@
         <v>16</v>
       </c>
       <c r="B1153" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="1154" spans="1:2" x14ac:dyDescent="0.25">
@@ -10657,7 +10671,7 @@
         <v>1</v>
       </c>
       <c r="B1161" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="1162" spans="1:2" x14ac:dyDescent="0.25">
@@ -10681,7 +10695,7 @@
         <v>5</v>
       </c>
       <c r="B1164" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="1165" spans="1:2" x14ac:dyDescent="0.25">
@@ -10689,7 +10703,7 @@
         <v>7</v>
       </c>
       <c r="B1165" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="1166" spans="1:2" x14ac:dyDescent="0.25">
@@ -10745,7 +10759,7 @@
         <v>16</v>
       </c>
       <c r="B1172" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="1173" spans="1:2" x14ac:dyDescent="0.25">
@@ -10809,7 +10823,7 @@
         <v>1</v>
       </c>
       <c r="B1180" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="1181" spans="1:2" x14ac:dyDescent="0.25">
@@ -10833,7 +10847,7 @@
         <v>5</v>
       </c>
       <c r="B1183" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="1184" spans="1:2" x14ac:dyDescent="0.25">
@@ -10841,7 +10855,7 @@
         <v>7</v>
       </c>
       <c r="B1184" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="1185" spans="1:2" x14ac:dyDescent="0.25">
@@ -10897,7 +10911,7 @@
         <v>16</v>
       </c>
       <c r="B1191" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="1192" spans="1:2" x14ac:dyDescent="0.25">
@@ -10961,7 +10975,7 @@
         <v>1</v>
       </c>
       <c r="B1199" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="1200" spans="1:2" x14ac:dyDescent="0.25">
@@ -10985,7 +10999,7 @@
         <v>5</v>
       </c>
       <c r="B1202" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="1203" spans="1:2" x14ac:dyDescent="0.25">
@@ -10993,7 +11007,7 @@
         <v>7</v>
       </c>
       <c r="B1203" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="1204" spans="1:2" x14ac:dyDescent="0.25">
@@ -11112,8 +11126,8 @@
       <c r="A1218" t="s">
         <v>1</v>
       </c>
-      <c r="B1218" t="s">
-        <v>260</v>
+      <c r="B1218" s="1" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="1219" spans="1:2" x14ac:dyDescent="0.25">
@@ -11137,7 +11151,7 @@
         <v>5</v>
       </c>
       <c r="B1221" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="1222" spans="1:2" x14ac:dyDescent="0.25">
@@ -11145,7 +11159,7 @@
         <v>7</v>
       </c>
       <c r="B1222" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="1223" spans="1:2" x14ac:dyDescent="0.25">
@@ -11264,8 +11278,8 @@
       <c r="A1237" t="s">
         <v>1</v>
       </c>
-      <c r="B1237" t="s">
-        <v>263</v>
+      <c r="B1237" s="2" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="1238" spans="1:2" x14ac:dyDescent="0.25">
@@ -11289,7 +11303,7 @@
         <v>5</v>
       </c>
       <c r="B1240" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="1241" spans="1:2" x14ac:dyDescent="0.25">
@@ -11297,7 +11311,7 @@
         <v>7</v>
       </c>
       <c r="B1241" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="1242" spans="1:2" x14ac:dyDescent="0.25">
@@ -11417,7 +11431,7 @@
         <v>1</v>
       </c>
       <c r="B1256" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="1257" spans="1:2" x14ac:dyDescent="0.25">
@@ -11441,7 +11455,7 @@
         <v>5</v>
       </c>
       <c r="B1259" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="1260" spans="1:2" x14ac:dyDescent="0.25">
@@ -11449,7 +11463,7 @@
         <v>7</v>
       </c>
       <c r="B1260" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="1261" spans="1:2" x14ac:dyDescent="0.25">
@@ -11569,7 +11583,7 @@
         <v>1</v>
       </c>
       <c r="B1275" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="1276" spans="1:2" x14ac:dyDescent="0.25">
@@ -11593,7 +11607,7 @@
         <v>5</v>
       </c>
       <c r="B1278" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="1279" spans="1:2" x14ac:dyDescent="0.25">
@@ -11601,7 +11615,7 @@
         <v>7</v>
       </c>
       <c r="B1279" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="1280" spans="1:2" x14ac:dyDescent="0.25">
@@ -11721,7 +11735,7 @@
         <v>1</v>
       </c>
       <c r="B1294" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="1295" spans="1:2" x14ac:dyDescent="0.25">
@@ -11745,7 +11759,7 @@
         <v>5</v>
       </c>
       <c r="B1297" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="1298" spans="1:2" x14ac:dyDescent="0.25">
@@ -11753,7 +11767,7 @@
         <v>7</v>
       </c>
       <c r="B1298" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="1299" spans="1:2" x14ac:dyDescent="0.25">
@@ -11873,7 +11887,7 @@
         <v>1</v>
       </c>
       <c r="B1313" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="1314" spans="1:2" x14ac:dyDescent="0.25">
@@ -11897,7 +11911,7 @@
         <v>5</v>
       </c>
       <c r="B1316" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="1317" spans="1:2" x14ac:dyDescent="0.25">
@@ -11905,7 +11919,7 @@
         <v>7</v>
       </c>
       <c r="B1317" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="1318" spans="1:2" x14ac:dyDescent="0.25">
@@ -12025,7 +12039,7 @@
         <v>1</v>
       </c>
       <c r="B1332" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="1333" spans="1:2" x14ac:dyDescent="0.25">
@@ -12049,7 +12063,7 @@
         <v>5</v>
       </c>
       <c r="B1335" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="1336" spans="1:2" x14ac:dyDescent="0.25">
@@ -12057,7 +12071,7 @@
         <v>7</v>
       </c>
       <c r="B1336" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="1337" spans="1:2" x14ac:dyDescent="0.25">
@@ -12177,7 +12191,7 @@
         <v>1</v>
       </c>
       <c r="B1351" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="1352" spans="1:2" x14ac:dyDescent="0.25">
@@ -12201,7 +12215,7 @@
         <v>5</v>
       </c>
       <c r="B1354" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="1355" spans="1:2" x14ac:dyDescent="0.25">
@@ -12209,7 +12223,7 @@
         <v>7</v>
       </c>
       <c r="B1355" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="1356" spans="1:2" x14ac:dyDescent="0.25">
@@ -12329,7 +12343,7 @@
         <v>1</v>
       </c>
       <c r="B1370" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="1371" spans="1:2" x14ac:dyDescent="0.25">
@@ -12353,7 +12367,7 @@
         <v>5</v>
       </c>
       <c r="B1373" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="1374" spans="1:2" x14ac:dyDescent="0.25">
@@ -12361,7 +12375,7 @@
         <v>7</v>
       </c>
       <c r="B1374" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="1375" spans="1:2" x14ac:dyDescent="0.25">
@@ -12481,7 +12495,7 @@
         <v>1</v>
       </c>
       <c r="B1389" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="1390" spans="1:2" x14ac:dyDescent="0.25">
@@ -12505,7 +12519,7 @@
         <v>5</v>
       </c>
       <c r="B1392" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="1393" spans="1:2" x14ac:dyDescent="0.25">
@@ -12513,7 +12527,7 @@
         <v>7</v>
       </c>
       <c r="B1393" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="1394" spans="1:2" x14ac:dyDescent="0.25">
@@ -12569,7 +12583,7 @@
         <v>16</v>
       </c>
       <c r="B1400" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="1401" spans="1:2" x14ac:dyDescent="0.25">
@@ -12633,7 +12647,7 @@
         <v>1</v>
       </c>
       <c r="B1408" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="1409" spans="1:2" x14ac:dyDescent="0.25">
@@ -12657,7 +12671,7 @@
         <v>5</v>
       </c>
       <c r="B1411" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="1412" spans="1:2" x14ac:dyDescent="0.25">
@@ -12665,7 +12679,7 @@
         <v>7</v>
       </c>
       <c r="B1412" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="1413" spans="1:2" x14ac:dyDescent="0.25">
@@ -12785,7 +12799,7 @@
         <v>1</v>
       </c>
       <c r="B1427" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="1428" spans="1:2" x14ac:dyDescent="0.25">
@@ -12809,7 +12823,7 @@
         <v>5</v>
       </c>
       <c r="B1430" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="1431" spans="1:2" x14ac:dyDescent="0.25">
@@ -12817,7 +12831,7 @@
         <v>7</v>
       </c>
       <c r="B1431" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="1432" spans="1:2" x14ac:dyDescent="0.25">
@@ -12937,7 +12951,7 @@
         <v>1</v>
       </c>
       <c r="B1446" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="1447" spans="1:2" x14ac:dyDescent="0.25">
@@ -12961,7 +12975,7 @@
         <v>5</v>
       </c>
       <c r="B1449" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="1450" spans="1:2" x14ac:dyDescent="0.25">
@@ -12969,7 +12983,7 @@
         <v>7</v>
       </c>
       <c r="B1450" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="1451" spans="1:2" x14ac:dyDescent="0.25">
@@ -13089,7 +13103,7 @@
         <v>1</v>
       </c>
       <c r="B1465" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="1466" spans="1:2" x14ac:dyDescent="0.25">
@@ -13113,7 +13127,7 @@
         <v>5</v>
       </c>
       <c r="B1468" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="1469" spans="1:2" x14ac:dyDescent="0.25">
@@ -13121,7 +13135,7 @@
         <v>7</v>
       </c>
       <c r="B1469" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="1470" spans="1:2" x14ac:dyDescent="0.25">
@@ -13241,7 +13255,7 @@
         <v>1</v>
       </c>
       <c r="B1484" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="1485" spans="1:2" x14ac:dyDescent="0.25">
@@ -13265,7 +13279,7 @@
         <v>5</v>
       </c>
       <c r="B1487" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="1488" spans="1:2" x14ac:dyDescent="0.25">
@@ -13273,7 +13287,7 @@
         <v>7</v>
       </c>
       <c r="B1488" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="1489" spans="1:2" x14ac:dyDescent="0.25">
@@ -13393,7 +13407,7 @@
         <v>1</v>
       </c>
       <c r="B1503" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="1504" spans="1:2" x14ac:dyDescent="0.25">
@@ -13417,7 +13431,7 @@
         <v>5</v>
       </c>
       <c r="B1506" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="1507" spans="1:2" x14ac:dyDescent="0.25">
@@ -13425,7 +13439,7 @@
         <v>7</v>
       </c>
       <c r="B1507" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="1508" spans="1:2" x14ac:dyDescent="0.25">
@@ -13545,7 +13559,7 @@
         <v>1</v>
       </c>
       <c r="B1522" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="1523" spans="1:2" x14ac:dyDescent="0.25">
@@ -13569,7 +13583,7 @@
         <v>5</v>
       </c>
       <c r="B1525" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="1526" spans="1:2" x14ac:dyDescent="0.25">
@@ -13577,7 +13591,7 @@
         <v>7</v>
       </c>
       <c r="B1526" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="1527" spans="1:2" x14ac:dyDescent="0.25">
@@ -13697,7 +13711,7 @@
         <v>1</v>
       </c>
       <c r="B1541" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="1542" spans="1:2" x14ac:dyDescent="0.25">
@@ -13721,7 +13735,7 @@
         <v>5</v>
       </c>
       <c r="B1544" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="1545" spans="1:2" x14ac:dyDescent="0.25">
@@ -13729,7 +13743,7 @@
         <v>7</v>
       </c>
       <c r="B1545" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="1546" spans="1:2" x14ac:dyDescent="0.25">
@@ -13849,7 +13863,7 @@
         <v>1</v>
       </c>
       <c r="B1560" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="1561" spans="1:2" x14ac:dyDescent="0.25">
@@ -13873,7 +13887,7 @@
         <v>5</v>
       </c>
       <c r="B1563" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="1564" spans="1:2" x14ac:dyDescent="0.25">
@@ -13881,7 +13895,7 @@
         <v>7</v>
       </c>
       <c r="B1564" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="1565" spans="1:2" x14ac:dyDescent="0.25">
@@ -13921,7 +13935,7 @@
         <v>13</v>
       </c>
       <c r="B1569" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="1570" spans="1:2" x14ac:dyDescent="0.25">
@@ -14001,7 +14015,7 @@
         <v>1</v>
       </c>
       <c r="B1579" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="1580" spans="1:2" x14ac:dyDescent="0.25">
@@ -14025,7 +14039,7 @@
         <v>5</v>
       </c>
       <c r="B1582" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="1583" spans="1:2" x14ac:dyDescent="0.25">
@@ -14033,7 +14047,7 @@
         <v>7</v>
       </c>
       <c r="B1583" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="1584" spans="1:2" x14ac:dyDescent="0.25">
@@ -14073,7 +14087,7 @@
         <v>13</v>
       </c>
       <c r="B1588" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="1589" spans="1:2" x14ac:dyDescent="0.25">
@@ -14153,7 +14167,7 @@
         <v>1</v>
       </c>
       <c r="B1598" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="1599" spans="1:2" x14ac:dyDescent="0.25">
@@ -14177,7 +14191,7 @@
         <v>5</v>
       </c>
       <c r="B1601" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="1602" spans="1:2" x14ac:dyDescent="0.25">
@@ -14185,7 +14199,7 @@
         <v>7</v>
       </c>
       <c r="B1602" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="1603" spans="1:2" x14ac:dyDescent="0.25">
@@ -14225,7 +14239,7 @@
         <v>13</v>
       </c>
       <c r="B1607" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="1608" spans="1:2" x14ac:dyDescent="0.25">
@@ -14294,5 +14308,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>